--- a/artfynd/A 14999-2019.xlsx
+++ b/artfynd/A 14999-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112438848</v>
+        <v>112438847</v>
       </c>
       <c r="B2" t="n">
-        <v>95693</v>
+        <v>95707</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>502199</v>
+        <v>502260</v>
       </c>
       <c r="R2" t="n">
-        <v>6543178</v>
+        <v>6543183</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112438847</v>
+        <v>112438846</v>
       </c>
       <c r="B3" t="n">
-        <v>95693</v>
+        <v>95704</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,16 +798,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221941</v>
+        <v>221946</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>502260</v>
+        <v>502269</v>
       </c>
       <c r="R3" t="n">
-        <v>6543183</v>
+        <v>6543231</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112438849</v>
+        <v>112438848</v>
       </c>
       <c r="B4" t="n">
-        <v>95690</v>
+        <v>95707</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -900,16 +900,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221946</v>
+        <v>221941</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>502192</v>
+        <v>502199</v>
       </c>
       <c r="R4" t="n">
-        <v>6543228</v>
+        <v>6543178</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>112438845</v>
       </c>
       <c r="B5" t="n">
-        <v>95690</v>
+        <v>95704</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112438846</v>
+        <v>112438849</v>
       </c>
       <c r="B6" t="n">
-        <v>95690</v>
+        <v>95704</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>502269</v>
+        <v>502192</v>
       </c>
       <c r="R6" t="n">
-        <v>6543231</v>
+        <v>6543228</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>

--- a/artfynd/A 14999-2019.xlsx
+++ b/artfynd/A 14999-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112438847</v>
+        <v>112438849</v>
       </c>
       <c r="B2" t="n">
-        <v>95707</v>
+        <v>95704</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221941</v>
+        <v>221946</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>502260</v>
+        <v>502192</v>
       </c>
       <c r="R2" t="n">
-        <v>6543183</v>
+        <v>6543228</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112438846</v>
+        <v>112438845</v>
       </c>
       <c r="B3" t="n">
         <v>95704</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>502269</v>
+        <v>502317</v>
       </c>
       <c r="R3" t="n">
-        <v>6543231</v>
+        <v>6543245</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112438848</v>
+        <v>112438846</v>
       </c>
       <c r="B4" t="n">
-        <v>95707</v>
+        <v>95704</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -900,16 +900,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221941</v>
+        <v>221946</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>502199</v>
+        <v>502269</v>
       </c>
       <c r="R4" t="n">
-        <v>6543178</v>
+        <v>6543231</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -986,10 +986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112438845</v>
+        <v>112438847</v>
       </c>
       <c r="B5" t="n">
-        <v>95704</v>
+        <v>95707</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1002,16 +1002,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221946</v>
+        <v>221941</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>502317</v>
+        <v>502260</v>
       </c>
       <c r="R5" t="n">
-        <v>6543245</v>
+        <v>6543183</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112438849</v>
+        <v>112438848</v>
       </c>
       <c r="B6" t="n">
-        <v>95704</v>
+        <v>95707</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1104,16 +1104,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221946</v>
+        <v>221941</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1128,10 +1128,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>502192</v>
+        <v>502199</v>
       </c>
       <c r="R6" t="n">
-        <v>6543228</v>
+        <v>6543178</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>

--- a/artfynd/A 14999-2019.xlsx
+++ b/artfynd/A 14999-2019.xlsx
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112438846</v>
+        <v>112438847</v>
       </c>
       <c r="B4" t="n">
-        <v>95704</v>
+        <v>95707</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -900,16 +900,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221946</v>
+        <v>221941</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>502269</v>
+        <v>502260</v>
       </c>
       <c r="R4" t="n">
-        <v>6543231</v>
+        <v>6543183</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -986,10 +986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112438847</v>
+        <v>112438846</v>
       </c>
       <c r="B5" t="n">
-        <v>95707</v>
+        <v>95704</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1002,16 +1002,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221941</v>
+        <v>221946</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>502260</v>
+        <v>502269</v>
       </c>
       <c r="R5" t="n">
-        <v>6543183</v>
+        <v>6543231</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
